--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/12_455-55R22.xlsx
@@ -19,7 +19,250 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="140">
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
   <si>
     <t>Signal_Value_88</t>
   </si>
@@ -127,6 +370,9 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -550,15 +796,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:DO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:119">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -668,10 +914,256 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:119">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -683,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2669486146347392</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3223287978607803</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1145363079130303</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03409398221989002</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -707,31 +1199,31 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.002190037553847609</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001730587257784922</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1549376786564502</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.05063323737114604</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.004712950693591489</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01793159680657433</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -740,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.004961187174855878</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0209376856517416</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -758,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.004057336205568327</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -781,10 +1273,256 @@
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0.3110039119940276</v>
+      </c>
+      <c r="CI2">
+        <v>0.04407739272874459</v>
+      </c>
+      <c r="CJ2">
+        <v>0.2308899478034846</v>
+      </c>
+      <c r="CK2">
+        <v>0.0005262817430231448</v>
+      </c>
+      <c r="CL2">
+        <v>0.0003131380398088384</v>
+      </c>
+      <c r="CM2">
+        <v>0.06693310988214181</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0.01806704230779561</v>
+      </c>
+      <c r="CR2">
+        <v>0.005161925870394561</v>
+      </c>
+      <c r="CS2">
+        <v>0.1284743773638588</v>
+      </c>
+      <c r="CT2">
+        <v>0.004774895739831419</v>
+      </c>
+      <c r="CU2">
+        <v>0.04904672559978313</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0.07697831155665918</v>
+      </c>
+      <c r="CX2">
+        <v>0.008032356879223438</v>
+      </c>
+      <c r="CY2">
+        <v>0.01872542323058787</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0.01461364068907074</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0.006591140658664256</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0.01579037791290047</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:119">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,58 +1531,58 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007761633782800323</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1742607829468068</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3222927622629421</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.08400608921634399</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.004448714216209044</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01652512429871952</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01834455015247031</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0005118182862332179</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01749377673842456</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.01832592757464277</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.1677479890775728</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.07001026517306112</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01236221865580689</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.04726059435227542</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -853,13 +1591,13 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.009741762482689313</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.02036266458658111</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -871,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.007572888956261446</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0009704372401592813</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -894,10 +1632,256 @@
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.2430762483051611</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0.237144897913885</v>
+      </c>
+      <c r="CK3">
+        <v>0.008876879534833517</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0.06254827589195705</v>
+      </c>
+      <c r="CN3">
+        <v>0.0354493928874447</v>
+      </c>
+      <c r="CO3">
+        <v>0.01626218325814998</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0.01636151311820002</v>
+      </c>
+      <c r="CR3">
+        <v>0.009431969093752027</v>
+      </c>
+      <c r="CS3">
+        <v>0.09166002491513532</v>
+      </c>
+      <c r="CT3">
+        <v>0.04682923978664057</v>
+      </c>
+      <c r="CU3">
+        <v>0.02159749017482787</v>
+      </c>
+      <c r="CV3">
+        <v>0.01927063460790739</v>
+      </c>
+      <c r="CW3">
+        <v>0.1203501329744674</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0.05330608618740221</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0.009883240011930527</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0.0005947104265507476</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0.006872291123605677</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0.0004847897881491093</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:119">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -912,58 +1896,58 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1394334263860402</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.3065401045915333</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0008241197903705752</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0003270086172496745</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02318287153715201</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.008221677807233298</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04151752705930281</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.1189595447923376</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.1365039717685407</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.03537510659893097</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01614491902403837</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.06822966446542007</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03158269026507425</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -972,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02622547147363261</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -987,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01478435156407626</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.03214754425906741</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1007,10 +1991,256 @@
       <c r="AK4">
         <v>0</v>
       </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0.05396069671075102</v>
+      </c>
+      <c r="AW4">
+        <v>0.1330255272797371</v>
+      </c>
+      <c r="AX4">
+        <v>0.232137109206904</v>
+      </c>
+      <c r="AY4">
+        <v>0.06077829701172539</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0.01088588799122898</v>
+      </c>
+      <c r="BB4">
+        <v>0.05442361897942876</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0.001180618904343714</v>
+      </c>
+      <c r="BE4">
+        <v>0.01427060603649192</v>
+      </c>
+      <c r="BF4">
+        <v>0.01440694786169528</v>
+      </c>
+      <c r="BG4">
+        <v>0.06223901198095903</v>
+      </c>
+      <c r="BH4">
+        <v>0.1427426407952307</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0.03720498366728561</v>
+      </c>
+      <c r="BK4">
+        <v>0.02179839937321849</v>
+      </c>
+      <c r="BL4">
+        <v>0.07801884065703402</v>
+      </c>
+      <c r="BM4">
+        <v>0.03629721287548299</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0.002547668127667429</v>
+      </c>
+      <c r="BV4">
+        <v>0.01357468628119551</v>
+      </c>
+      <c r="BW4">
+        <v>0.02137335309684601</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0.0001619365116205327</v>
+      </c>
+      <c r="BZ4">
+        <v>0.008971956651153811</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:119">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1019,79 +2249,79 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.05866867180360678</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1046195087457149</v>
       </c>
       <c r="F5">
-        <v>0.203605394793228</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3082576828355844</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01030339782758265</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03773032822434538</v>
+        <v>0.02480574504749838</v>
       </c>
       <c r="K5">
-        <v>0.02956120441574965</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02813962302498246</v>
       </c>
       <c r="M5">
-        <v>0.001035815403185701</v>
+        <v>0.04748775332993636</v>
       </c>
       <c r="N5">
-        <v>0.005206590115208655</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.01029068963222245</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.08460382708303539</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.08110055752858289</v>
+        <v>0.008555511802140467</v>
       </c>
       <c r="S5">
-        <v>0.04432186595195839</v>
+        <v>0.02541289087504352</v>
       </c>
       <c r="T5">
-        <v>0.005735244772170803</v>
+        <v>0.07268685680628711</v>
       </c>
       <c r="U5">
-        <v>0.09827662833627222</v>
+        <v>0.00819487490691868</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.009254756357590719</v>
       </c>
       <c r="W5">
-        <v>0.009187524794622979</v>
+        <v>0.1366811441946888</v>
       </c>
       <c r="X5">
-        <v>0.01746112712614082</v>
+        <v>0.1800208974158319</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.1591722477170684</v>
       </c>
       <c r="Z5">
-        <v>0.01199833877744786</v>
+        <v>0.06164180976915384</v>
       </c>
       <c r="AA5">
-        <v>0.005634370942115148</v>
+        <v>0.004644628406403803</v>
       </c>
       <c r="AB5">
-        <v>0.01168144614634196</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1103,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.02400796529420475</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.007068601792844674</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01691738979470905</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.04602708820958002</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1120,10 +2350,256 @@
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:119">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1135,25 +2611,25 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2744254467974087</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03806168675814205</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1225653737173593</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0341113696500616</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02927396099844227</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01891613647809891</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1162,34 +2638,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.01106019313681186</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1383570672821516</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.03391457080232953</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1273635829965314</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1378800257935012</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0232594427984623</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.006495218258618761</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0006755475637552843</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1213,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.003640376968325262</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1231,6 +2707,252 @@
         <v>0</v>
       </c>
       <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0.3245724846825674</v>
+      </c>
+      <c r="CK6">
+        <v>0.01383036096057339</v>
+      </c>
+      <c r="CL6">
+        <v>0.2315192478789536</v>
+      </c>
+      <c r="CM6">
+        <v>0.03199583121405297</v>
+      </c>
+      <c r="CN6">
+        <v>0.02316011323926413</v>
+      </c>
+      <c r="CO6">
+        <v>0.01852044096901208</v>
+      </c>
+      <c r="CP6">
+        <v>0.00563019581692072</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0.03770990979214323</v>
+      </c>
+      <c r="CU6">
+        <v>0.1182465862263074</v>
+      </c>
+      <c r="CV6">
+        <v>7.499698684852306E-05</v>
+      </c>
+      <c r="CW6">
+        <v>0.04983568596566165</v>
+      </c>
+      <c r="CX6">
+        <v>0.004805137816335444</v>
+      </c>
+      <c r="CY6">
+        <v>0.05943435016114795</v>
+      </c>
+      <c r="CZ6">
+        <v>0.004308746888783456</v>
+      </c>
+      <c r="DA6">
+        <v>0.06142237023119435</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0.001421829131117787</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0.007310770893808191</v>
+      </c>
+      <c r="DG6">
+        <v>0.001437877752422947</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0.004763063392884867</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
         <v>0</v>
       </c>
     </row>
@@ -1241,15 +2963,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:DO6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:119">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1359,10 +3081,256 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:119">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1374,108 +3342,354 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2669486146347392</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5892774124955195</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7038137204085497</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7038137204085497</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7379077026284397</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7379077026284397</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7379077026284397</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7379077026284397</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7400977401822874</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7400977401822874</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7418283274400723</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8967660060965225</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8967660060965225</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.9473992434676685</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.9473992434676685</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.9521121941612599</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.9700437909678342</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.9700437909678342</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9700437909678342</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.97500497814269</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.97500497814269</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9959426637944316</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9959426637944316</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9959426637944316</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.9959426637944316</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0.3110039119940276</v>
+      </c>
+      <c r="CI2">
+        <v>0.3550813047227722</v>
+      </c>
+      <c r="CJ2">
+        <v>0.5859712525262568</v>
+      </c>
+      <c r="CK2">
+        <v>0.58649753426928</v>
+      </c>
+      <c r="CL2">
+        <v>0.5868106723090888</v>
+      </c>
+      <c r="CM2">
+        <v>0.6537437821912306</v>
+      </c>
+      <c r="CN2">
+        <v>0.6537437821912306</v>
+      </c>
+      <c r="CO2">
+        <v>0.6537437821912306</v>
+      </c>
+      <c r="CP2">
+        <v>0.6537437821912306</v>
+      </c>
+      <c r="CQ2">
+        <v>0.6718108244990263</v>
+      </c>
+      <c r="CR2">
+        <v>0.6769727503694208</v>
+      </c>
+      <c r="CS2">
+        <v>0.8054471277332796</v>
+      </c>
+      <c r="CT2">
+        <v>0.810222023473111</v>
+      </c>
+      <c r="CU2">
+        <v>0.8592687490728942</v>
+      </c>
+      <c r="CV2">
+        <v>0.8592687490728942</v>
+      </c>
+      <c r="CW2">
+        <v>0.9362470606295534</v>
+      </c>
+      <c r="CX2">
+        <v>0.9442794175087769</v>
+      </c>
+      <c r="CY2">
+        <v>0.9630048407393648</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9630048407393648</v>
+      </c>
+      <c r="DA2">
+        <v>0.9630048407393648</v>
+      </c>
+      <c r="DB2">
+        <v>0.9776184814284355</v>
+      </c>
+      <c r="DC2">
+        <v>0.9776184814284355</v>
+      </c>
+      <c r="DD2">
+        <v>0.9842096220870998</v>
+      </c>
+      <c r="DE2">
+        <v>0.9842096220870998</v>
+      </c>
+      <c r="DF2">
+        <v>0.9842096220870998</v>
+      </c>
+      <c r="DG2">
+        <v>0.9842096220870998</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:119">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1484,111 +3698,357 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007761633782800323</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1820224167296071</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5043151789925492</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5883212682088932</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5927699824251023</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6092951067238218</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6092951067238218</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6276396568762921</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6281514751625253</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6456452519009499</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6456452519009499</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6639711794755927</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8317191685531655</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8317191685531655</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.9017294337262266</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.9140916523820335</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.9140916523820335</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.961352246734309</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.961352246734309</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.961352246734309</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.9710940092169983</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.9710940092169983</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.9914566738035794</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.9914566738035794</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.9914566738035794</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.9914566738035794</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.9990295627598408</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.2430762483051611</v>
+      </c>
+      <c r="CI3">
+        <v>0.2430762483051611</v>
+      </c>
+      <c r="CJ3">
+        <v>0.4802211462190461</v>
+      </c>
+      <c r="CK3">
+        <v>0.4890980257538796</v>
+      </c>
+      <c r="CL3">
+        <v>0.4890980257538796</v>
+      </c>
+      <c r="CM3">
+        <v>0.5516463016458366</v>
+      </c>
+      <c r="CN3">
+        <v>0.5870956945332814</v>
+      </c>
+      <c r="CO3">
+        <v>0.6033578777914314</v>
+      </c>
+      <c r="CP3">
+        <v>0.6033578777914314</v>
+      </c>
+      <c r="CQ3">
+        <v>0.6197193909096314</v>
+      </c>
+      <c r="CR3">
+        <v>0.6291513600033833</v>
+      </c>
+      <c r="CS3">
+        <v>0.7208113849185187</v>
+      </c>
+      <c r="CT3">
+        <v>0.7676406247051593</v>
+      </c>
+      <c r="CU3">
+        <v>0.7892381148799872</v>
+      </c>
+      <c r="CV3">
+        <v>0.8085087494878945</v>
+      </c>
+      <c r="CW3">
+        <v>0.9288588824623619</v>
+      </c>
+      <c r="CX3">
+        <v>0.9288588824623619</v>
+      </c>
+      <c r="CY3">
+        <v>0.9821649686497641</v>
+      </c>
+      <c r="CZ3">
+        <v>0.9821649686497641</v>
+      </c>
+      <c r="DA3">
+        <v>0.9821649686497641</v>
+      </c>
+      <c r="DB3">
+        <v>0.9920482086616946</v>
+      </c>
+      <c r="DC3">
+        <v>0.9920482086616946</v>
+      </c>
+      <c r="DD3">
+        <v>0.9926429190882454</v>
+      </c>
+      <c r="DE3">
+        <v>0.9926429190882454</v>
+      </c>
+      <c r="DF3">
+        <v>0.9926429190882454</v>
+      </c>
+      <c r="DG3">
+        <v>0.9926429190882454</v>
+      </c>
+      <c r="DH3">
+        <v>0.9995152102118511</v>
+      </c>
+      <c r="DI3">
+        <v>0.9995152102118511</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9995152102118511</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>1</v>
+      </c>
+      <c r="DM3">
+        <v>1</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:119">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1603,105 +4063,351 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1394334263860402</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1394334263860402</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.4459735309775735</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4467976507679441</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4471246593851937</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4703075309223458</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4703075309223458</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4785292087295791</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4785292087295791</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5200467357888819</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5200467357888819</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.6390062805812196</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.7755102523497603</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.8108853589486913</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.8270302779727297</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.8952599424381498</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.8952599424381498</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.926842632703224</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.926842632703224</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.926842632703224</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9530681041768566</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9530681041768566</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.9530681041768566</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.9530681041768566</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.9530681041768566</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9678524557409328</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0.05396069671075102</v>
+      </c>
+      <c r="AW4">
+        <v>0.1869862239904881</v>
+      </c>
+      <c r="AX4">
+        <v>0.4191233331973921</v>
+      </c>
+      <c r="AY4">
+        <v>0.4799016302091175</v>
+      </c>
+      <c r="AZ4">
+        <v>0.4799016302091175</v>
+      </c>
+      <c r="BA4">
+        <v>0.4907875182003465</v>
+      </c>
+      <c r="BB4">
+        <v>0.5452111371797752</v>
+      </c>
+      <c r="BC4">
+        <v>0.5452111371797752</v>
+      </c>
+      <c r="BD4">
+        <v>0.5463917560841189</v>
+      </c>
+      <c r="BE4">
+        <v>0.5606623621206108</v>
+      </c>
+      <c r="BF4">
+        <v>0.5750693099823061</v>
+      </c>
+      <c r="BG4">
+        <v>0.6373083219632651</v>
+      </c>
+      <c r="BH4">
+        <v>0.7800509627584958</v>
+      </c>
+      <c r="BI4">
+        <v>0.7800509627584958</v>
+      </c>
+      <c r="BJ4">
+        <v>0.8172559464257815</v>
+      </c>
+      <c r="BK4">
+        <v>0.839054345799</v>
+      </c>
+      <c r="BL4">
+        <v>0.917073186456034</v>
+      </c>
+      <c r="BM4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BN4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BO4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BP4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BQ4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BR4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BS4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BT4">
+        <v>0.953370399331517</v>
+      </c>
+      <c r="BU4">
+        <v>0.9559180674591844</v>
+      </c>
+      <c r="BV4">
+        <v>0.9694927537403799</v>
+      </c>
+      <c r="BW4">
+        <v>0.9908661068372259</v>
+      </c>
+      <c r="BX4">
+        <v>0.9908661068372259</v>
+      </c>
+      <c r="BY4">
+        <v>0.9910280433488464</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>1</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DH4">
+        <v>1</v>
+      </c>
+      <c r="DI4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>1</v>
+      </c>
+      <c r="DK4">
+        <v>1</v>
+      </c>
+      <c r="DL4">
+        <v>1</v>
+      </c>
+      <c r="DM4">
+        <v>1</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:119">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1710,97 +4416,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.05866867180360678</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1632881805493217</v>
       </c>
       <c r="F5">
-        <v>0.203605394793228</v>
+        <v>0.1632881805493217</v>
       </c>
       <c r="G5">
-        <v>0.203605394793228</v>
+        <v>0.1632881805493217</v>
       </c>
       <c r="H5">
-        <v>0.5118630776288123</v>
+        <v>0.1632881805493217</v>
       </c>
       <c r="I5">
-        <v>0.5221664754563949</v>
+        <v>0.1632881805493217</v>
       </c>
       <c r="J5">
-        <v>0.5598968036807404</v>
+        <v>0.1880939255968201</v>
       </c>
       <c r="K5">
-        <v>0.58945800809649</v>
+        <v>0.1880939255968201</v>
       </c>
       <c r="L5">
-        <v>0.58945800809649</v>
+        <v>0.2162335486218026</v>
       </c>
       <c r="M5">
-        <v>0.5904938234996756</v>
+        <v>0.2637213019517389</v>
       </c>
       <c r="N5">
-        <v>0.5957004136148842</v>
+        <v>0.2637213019517389</v>
       </c>
       <c r="O5">
-        <v>0.6059911032471067</v>
+        <v>0.2637213019517389</v>
       </c>
       <c r="P5">
-        <v>0.6059911032471067</v>
+        <v>0.2637213019517389</v>
       </c>
       <c r="Q5">
-        <v>0.6905949303301421</v>
+        <v>0.2637213019517389</v>
       </c>
       <c r="R5">
-        <v>0.771695487858725</v>
+        <v>0.2722768137538794</v>
       </c>
       <c r="S5">
-        <v>0.8160173538106834</v>
+        <v>0.2976897046289229</v>
       </c>
       <c r="T5">
-        <v>0.8217525985828542</v>
+        <v>0.37037656143521</v>
       </c>
       <c r="U5">
-        <v>0.9200292269191265</v>
+        <v>0.3785714363421287</v>
       </c>
       <c r="V5">
-        <v>0.9200292269191265</v>
+        <v>0.3878261926997194</v>
       </c>
       <c r="W5">
-        <v>0.9292167517137494</v>
+        <v>0.5245073368944082</v>
       </c>
       <c r="X5">
-        <v>0.9466778788398902</v>
+        <v>0.7045282343102401</v>
       </c>
       <c r="Y5">
-        <v>0.9466778788398902</v>
+        <v>0.8637004820273085</v>
       </c>
       <c r="Z5">
-        <v>0.958676217617338</v>
+        <v>0.9253422917964624</v>
       </c>
       <c r="AA5">
-        <v>0.9643105885594532</v>
+        <v>0.9299869202028662</v>
       </c>
       <c r="AB5">
-        <v>0.9759920347057951</v>
+        <v>0.9299869202028662</v>
       </c>
       <c r="AC5">
-        <v>0.9759920347057951</v>
+        <v>0.9299869202028662</v>
       </c>
       <c r="AD5">
-        <v>0.9759920347057951</v>
+        <v>0.9299869202028662</v>
       </c>
       <c r="AE5">
-        <v>0.9759920347057951</v>
+        <v>0.9299869202028662</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9299869202028662</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9370555219957108</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9539729117904199</v>
       </c>
       <c r="AI5">
         <v>0.9999999999999999</v>
@@ -1811,10 +4517,256 @@
       <c r="AK5">
         <v>0.9999999999999999</v>
       </c>
+      <c r="AL5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AO5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BX5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DH5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DI5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DK5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DL5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DM5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DN5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DO5">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:119">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1826,102 +4778,348 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2744254467974087</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3124871335555507</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.43505250727291</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.43505250727291</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4691638769229716</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4984378379214139</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5173539743995128</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5173539743995128</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5173539743995128</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5284141675363246</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5284141675363246</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6667712348184762</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7006858056208057</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.8280493886173371</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.8280493886173371</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.9659294144108383</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9891888572093006</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.9956840754679194</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9963596230316747</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0.3245724846825674</v>
+      </c>
+      <c r="CK6">
+        <v>0.3384028456431408</v>
+      </c>
+      <c r="CL6">
+        <v>0.5699220935220943</v>
+      </c>
+      <c r="CM6">
+        <v>0.6019179247361472</v>
+      </c>
+      <c r="CN6">
+        <v>0.6250780379754114</v>
+      </c>
+      <c r="CO6">
+        <v>0.6435984789444235</v>
+      </c>
+      <c r="CP6">
+        <v>0.6492286747613442</v>
+      </c>
+      <c r="CQ6">
+        <v>0.6492286747613442</v>
+      </c>
+      <c r="CR6">
+        <v>0.6492286747613442</v>
+      </c>
+      <c r="CS6">
+        <v>0.6492286747613442</v>
+      </c>
+      <c r="CT6">
+        <v>0.6869385845534874</v>
+      </c>
+      <c r="CU6">
+        <v>0.8051851707797949</v>
+      </c>
+      <c r="CV6">
+        <v>0.8052601677666434</v>
+      </c>
+      <c r="CW6">
+        <v>0.8550958537323051</v>
+      </c>
+      <c r="CX6">
+        <v>0.8599009915486405</v>
+      </c>
+      <c r="CY6">
+        <v>0.9193353417097885</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9236440885985719</v>
+      </c>
+      <c r="DA6">
+        <v>0.9850664588297663</v>
+      </c>
+      <c r="DB6">
+        <v>0.9850664588297663</v>
+      </c>
+      <c r="DC6">
+        <v>0.9850664588297663</v>
+      </c>
+      <c r="DD6">
+        <v>0.9864882879608841</v>
+      </c>
+      <c r="DE6">
+        <v>0.9864882879608841</v>
+      </c>
+      <c r="DF6">
+        <v>0.9937990588546922</v>
+      </c>
+      <c r="DG6">
+        <v>0.9952369366071152</v>
+      </c>
+      <c r="DH6">
+        <v>0.9952369366071152</v>
+      </c>
+      <c r="DI6">
+        <v>0.9952369366071152</v>
+      </c>
+      <c r="DJ6">
+        <v>1</v>
+      </c>
+      <c r="DK6">
+        <v>1</v>
+      </c>
+      <c r="DL6">
+        <v>1</v>
+      </c>
+      <c r="DM6">
+        <v>1</v>
+      </c>
+      <c r="DN6">
+        <v>1</v>
+      </c>
+      <c r="DO6">
         <v>1</v>
       </c>
     </row>
@@ -1940,66 +5138,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5892774124955195</v>
+        <v>0.5859712525262568</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -2008,39 +5206,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5043151789925492</v>
+        <v>0.5516463016458366</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -2049,39 +5247,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5200467357888819</v>
+        <v>0.5452111371797752</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -2090,39 +5288,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5118630776288123</v>
+        <v>0.5245073368944082</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -2131,39 +5329,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5173539743995128</v>
+        <v>0.5699220935220943</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -2172,16 +5370,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2199,66 +5397,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7038137204085497</v>
+        <v>0.8054471277332796</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -2267,36 +5465,36 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8317191685531655</v>
+        <v>0.7208113849185187</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2308,36 +5506,36 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7755102523497603</v>
+        <v>0.7800509627584958</v>
       </c>
       <c r="G4">
         <v>14</v>
@@ -2349,39 +5547,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.771695487858725</v>
+        <v>0.7045282343102401</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -2390,39 +5588,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7006858056208057</v>
+        <v>0.8051851707797949</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -2431,16 +5629,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2458,63 +5656,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8967660060965225</v>
+        <v>0.8054471277332796</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2526,39 +5724,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8317191685531655</v>
+        <v>0.8085087494878945</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -2567,39 +5765,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8108853589486913</v>
+        <v>0.8172559464257815</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -2608,39 +5806,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8160173538106834</v>
+        <v>0.8637004820273085</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -2649,39 +5847,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8280493886173371</v>
+        <v>0.8051851707797949</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -2690,16 +5888,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2717,66 +5915,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9362470606295534</v>
+      </c>
+      <c r="G2">
         <v>17</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9473992434676685</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -2785,39 +5983,39 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9288588824623619</v>
+      </c>
+      <c r="G3">
         <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9017294337262266</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -2826,39 +6024,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.926842632703224</v>
+        <v>0.917073186456034</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -2867,39 +6065,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9200292269191265</v>
+        <v>0.9253422917964624</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -2908,36 +6106,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9659294144108383</v>
+        <v>0.9193353417097885</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2949,16 +6147,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="M6" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
